--- a/biology/Écologie/Les_Temps_Durables/Les_Temps_Durables.xlsx
+++ b/biology/Écologie/Les_Temps_Durables/Les_Temps_Durables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Temps Durables est un quartier résidentiel de 1250 logements, réalisé à partir de 2010. Il est situé à Limeil-Brévannes, au sud-est de Paris. 
 Couvrant une superficie de 10 hectares, il occupe une ancienne ballastière, autrefois propriété des Hôpitaux de Paris, qui aurait été comblée par les excavations effectuées lors de l'édification de la Tour Montparnasse.
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2003, la Ville de Limeil-Brévannes engage les premières réflexions urbaines et confie les études d’aménagement à la Société d’Économie Mixte Avenir Limeil-Brévannes (SEM ALB) .
 En 2004, trois réunions de travail définissent avec les associations de quartier et l’Agence régionale pour l’environnement et les énergies renouvelables (ARENE) un cahier des charges développement durable.
@@ -551,12 +565,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un quartier écocitoyen
-Outre les critères environnementaux à respecter et les techniques à mobiliser en matière d’économie d’énergie, l’esprit du quartier, c’est avant tout une dimension sociale et économique qui donne la possibilité, au plus grand nombre, d’habiter en location ou en accession à la propriété, des logements à des prix très accessibles, confortables et respectueux de l’environnement.
+          <t>Un quartier écocitoyen</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les critères environnementaux à respecter et les techniques à mobiliser en matière d’économie d’énergie, l’esprit du quartier, c’est avant tout une dimension sociale et économique qui donne la possibilité, au plus grand nombre, d’habiter en location ou en accession à la propriété, des logements à des prix très accessibles, confortables et respectueux de l’environnement.
 La notion de relation intergénérationnelle est très présente dans ce quartier avec la création d’une crèche, d’une maison verte, lieu d’écoute et d’accueil des personnes âgées basé sur le modèle des maisons bleues de Françoise Dolto.
 L’esprit durable c’est aussi pour tous les acteurs du projet urbain la volonté de s’inscrire dans une relation de long terme avec les habitants et de créer les conditions d’un dialogue constructif au profit du nouveau quartier.
-Aspects environnementaux
-Parmi les premiers écoquartiers branchés au ciel, les sources d'énergies sont variées :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Temps_Durables</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Temps_Durables</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Objectifs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aspects environnementaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les premiers écoquartiers branchés au ciel, les sources d'énergies sont variées :
 Zéro énergie fossile,
 Zéro rejet d’eaux pluviales,
 Zéro exportation des terres,
@@ -570,34 +624,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Les_Temps_Durables</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Temps_Durables</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Le projet en chiffres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Coûts
-Coût total : 150 000 000 €, dont :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coûts</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Coût total : 150 000 000 €, dont :
 montants des études : 3 000 000 €
 montant des terrains : 5 300 000 €
 montant des aménagements voirie et réseaux divers : 5 800 000 €
@@ -605,9 +664,43 @@
 montant des fondations spéciales : 5 200 000 €
 montants des équipements publics : 5 000 000 €
 Coût à l'unité
-2 950 €/m2 hors-taxes, parking compris, pour les logements.
-Partenaires
-Onze promoteurs-constructeurs publics et privés se sont associés pour la réalisation de ce projet :
+2 950 €/m2 hors-taxes, parking compris, pour les logements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Temps_Durables</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Temps_Durables</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le projet en chiffres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Partenaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Onze promoteurs-constructeurs publics et privés se sont associés pour la réalisation de ce projet :
 RRP-Sadif
 Domefi
 Pitch
@@ -622,31 +715,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Les_Temps_Durables</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Temps_Durables</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancienne ballastière, le site a servi, autrefois, de décharge sauvage. Ainsi s'y sont entassés réfrigérateurs, batteries automobiles, divers électroménager, etc. Les protagonistes du projet s'en défendent en affirmant qu'aucune prétention au titre d'écoquartier ne serait légitime en exportant cette pollution.
 Ces terres sont donc traitées sur place avant leur confinement sous les voiries.
